--- a/input/SampleExcelFiles/Random_number_comparision.xlsx
+++ b/input/SampleExcelFiles/Random_number_comparision.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simmi Anand\Desktop\ILO_RACE\FirstProcess\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simmi Anand\Desktop\ILO_RACE\FirstProcess\input\SampleExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D49664-FBD8-4361-BCA9-121E81D4A0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE708F17-D93C-4223-ADE4-DAF2AC7EDCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4185036E-D948-46A3-B970-61DB99165EAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Col1</t>
   </si>
   <si>
     <t>Col2</t>
+  </si>
+  <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Comparision</t>
   </si>
 </sst>
 </file>
@@ -390,101 +402,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ED698D-4ED0-4318-95B4-D52BAE8EDBEE}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABC5AC-3636-492E-8FFC-F69CFEAC934A}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>27</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>33</v>
       </c>
       <c r="B4">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>83</v>
       </c>
       <c r="B5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>62</v>
       </c>
       <c r="B6">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>40</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>82</v>
       </c>
       <c r="B10">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
       <c r="B11">
         <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
